--- a/model_exports/labels/2.0_True_False_0_0.xlsx
+++ b/model_exports/labels/2.0_True_False_0_0.xlsx
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -466,14 +466,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,24 +648,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,20 +674,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,33 +700,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,85 +739,85 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,33 +869,33 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,20 +934,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,20 +960,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,24 +999,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,72 +1025,72 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,20 +1129,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,37 +1155,37 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,46 +1220,46 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,33 +1324,33 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,20 +1363,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,72 +1415,72 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,24 +1493,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,33 +1519,33 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,24 +1558,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,37 +1636,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,20 +1688,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,59 +1727,59 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,46 +1792,46 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,24 +1844,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,33 +1883,33 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,20 +1922,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,46 +1948,46 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,37 +2000,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,33 +2039,33 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,20 +2078,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,24 +2104,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,11 +2143,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,85 +2234,85 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,63 +2338,63 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,24 +2403,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,72 +2429,72 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,24 +2507,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,20 +2546,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,20 +2572,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,37 +2598,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2637,20 +2637,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,20 +2728,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2767,11 +2767,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,33 +2793,33 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2845,24 +2845,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,85 +2871,85 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,37 +3053,37 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,59 +3092,59 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3170,20 +3170,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,46 +3248,46 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3313,20 +3313,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,72 +3339,72 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,20 +3430,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,24 +3482,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,20 +3521,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,46 +3547,46 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,46 +3625,46 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,24 +3690,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,59 +3716,59 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,20 +3781,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,20 +3807,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,33 +3833,33 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,24 +3898,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,11 +3963,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,33 +3976,33 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,11 +4015,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,46 +4054,46 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,20 +4119,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,59 +4145,59 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,24 +4210,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,50 +4249,50 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,33 +4340,33 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,24 +4418,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,33 +4444,33 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,59 +4483,59 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,33 +4548,33 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,59 +4587,59 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,37 +4652,37 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,59 +4691,59 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,20 +4821,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,24 +4886,24 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4925,33 +4925,33 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,46 +4964,46 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,85 +5029,85 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,33 +5120,33 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,11 +5159,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,20 +5185,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,46 +5224,46 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -5328,20 +5328,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,20 +5354,20 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,59 +5380,59 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,24 +5458,24 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,33 +5510,33 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,33 +5549,33 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,24 +5588,24 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,11 +5627,11 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -5640,20 +5640,20 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,98 +5666,98 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,20 +5783,20 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,46 +5861,46 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,7 +5952,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,20 +5965,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,37 +6004,37 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -6043,24 +6043,24 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,37 +6069,37 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6108,33 +6108,33 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,20 +6160,20 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,33 +6186,33 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,11 +6225,11 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -6238,20 +6238,20 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,20 +6264,20 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,24 +6303,24 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,63 +6342,63 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,11 +6472,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,11 +6485,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -6498,20 +6498,20 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,7 +6537,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,11 +6563,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,50 +6576,50 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -6628,37 +6628,37 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,20 +6680,20 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,11 +6706,11 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,72 +6745,72 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,85 +6823,85 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,33 +6940,33 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,24 +7044,24 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
         <v>0</v>
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,37 +7109,37 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,11 +7174,11 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
         <v>0</v>
@@ -7187,33 +7187,33 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,50 +7239,50 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
         <v>1</v>
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,76 +7304,76 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,7 +7395,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,33 +7421,33 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,85 +7460,85 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,50 +7551,50 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7603,33 +7603,33 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,33 +7746,33 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,59 +7785,59 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,20 +7889,20 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,20 +7915,20 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,11 +7941,11 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,20 +7954,20 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,50 +7980,50 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,20 +8058,20 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,33 +8240,33 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,11 +8279,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,11 +8318,11 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,11 +8370,11 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,20 +8409,20 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,20 +8500,20 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,20 +8552,20 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B625" t="n">
         <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,33 +8591,33 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B628" t="n">
         <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,50 +8799,50 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,24 +8877,24 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B650" t="n">
         <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,11 +8903,11 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
         <v>1</v>
@@ -8916,20 +8916,20 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,11 +8981,11 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -8994,11 +8994,11 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,20 +9007,20 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,24 +9033,24 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,50 +9072,50 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B666" t="n">
         <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,20 +9150,20 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,72 +9254,72 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,20 +9345,20 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B689" t="n">
         <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,24 +9423,24 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,20 +9462,20 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,37 +9488,37 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,20 +9592,20 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,33 +9618,33 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,37 +9657,37 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,20 +9761,20 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,20 +9800,20 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,20 +9839,20 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,20 +9891,20 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B728" t="n">
         <v>1</v>
       </c>
       <c r="C728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-946177924222222336</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,20 +9917,20 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B730" t="n">
         <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-833891988315336704</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-940573035752386560</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B732" t="n">
